--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>No</t>
   </si>
@@ -345,6 +345,21 @@
   </si>
   <si>
     <t>周蓉</t>
+  </si>
+  <si>
+    <t>papp token 验证</t>
+  </si>
+  <si>
+    <t>papp</t>
+  </si>
+  <si>
+    <t>安迪</t>
+  </si>
+  <si>
+    <t>野帝组</t>
+  </si>
+  <si>
+    <t>余星赞</t>
   </si>
   <si>
     <t>上线版本</t>
@@ -770,10 +785,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -912,38 +927,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -954,8 +984,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,8 +1000,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,7 +1010,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,14 +1027,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,40 +1046,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1056,14 +1079,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1129,13 +1144,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,55 +1216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,13 +1246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,43 +1276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,7 +1294,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,13 +1318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,11 +1497,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,50 +1551,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1571,11 +1579,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,180 +1599,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2132,6 +2147,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2562,7 +2580,7 @@
   <dimension ref="A1:X168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3711,30 +3729,65 @@
       <c r="W18" s="46"/>
       <c r="X18" s="45"/>
     </row>
-    <row r="19" ht="16.5" spans="1:23">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+    <row r="19" s="23" customFormat="1" ht="18" customHeight="1" spans="1:24">
+      <c r="A19" s="98">
+        <v>18</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="101">
+        <v>42755</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="101">
+        <v>42755</v>
+      </c>
+      <c r="K19" s="100"/>
+      <c r="L19" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="101">
+        <v>42755</v>
+      </c>
+      <c r="R19" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="125"/>
+      <c r="T19" s="41"/>
       <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="46"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="45"/>
     </row>
     <row r="20" ht="16.5" spans="1:23">
       <c r="A20" s="102"/>
@@ -3805,11 +3858,11 @@
       <c r="P22" s="39"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="39"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="127"/>
     </row>
     <row r="23" ht="16.5" spans="1:23">
       <c r="A23" s="102"/>
@@ -3830,11 +3883,11 @@
       <c r="P23" s="39"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="39"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="126"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="127"/>
     </row>
     <row r="24" ht="16.5" spans="1:23">
       <c r="A24" s="102"/>
@@ -3855,11 +3908,11 @@
       <c r="P24" s="39"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="39"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="126"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="127"/>
     </row>
     <row r="25" ht="16.5" spans="1:23">
       <c r="A25" s="102"/>
@@ -3880,11 +3933,11 @@
       <c r="P25" s="39"/>
       <c r="Q25" s="40"/>
       <c r="R25" s="39"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="126"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="127"/>
     </row>
     <row r="26" ht="16.5" spans="1:23">
       <c r="A26" s="102"/>
@@ -3905,11 +3958,11 @@
       <c r="P26" s="39"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="39"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="126"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="127"/>
     </row>
     <row r="27" ht="16.5" spans="1:23">
       <c r="A27" s="102"/>
@@ -4030,11 +4083,11 @@
       <c r="P31" s="39"/>
       <c r="Q31" s="40"/>
       <c r="R31" s="39"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="126"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="127"/>
     </row>
     <row r="32" ht="16.5" spans="1:23">
       <c r="A32" s="102"/>
@@ -7323,28 +7376,28 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G4 I4 V4 G2:G3 G5:G11 G12:G16 G17:G18 G19:G1048576 I2:I3 I5:I11 I12:I16 I17:I18 I19:I1048576 V2:V3 V5:V11 V12:V16 V17:V18 V19:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P4 P19 P2:P3 P5:P11 P12:P16 P17:P18 P20:P1048576">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B4 B19 B2:B3 B5:B11 B12:B16 B17:B18 B20:B1048576">
+      <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G4 I4 V4 G19 I19 V19 G2:G3 G5:G11 G12:G16 G17:G18 G20:G1048576 I2:I3 I5:I11 I12:I16 I17:I18 I20:I1048576 V2:V3 V5:V11 V12:V16 V17:V18 V20:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B4 B2:B3 B5:B11 B12:B16 B17:B18 B19:B1048576">
-      <formula1>"重要,不重要"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C19 C2:C3 C5:C11 C12:C16 C17:C18 C20:C1048576">
+      <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M4 M2:M3 M5:M11 M12:M16 M17:M18 M19:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E4 E19 E2:E3 E5:E11 E12:E16 E17:E18 E20:E1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M4 M19 M2:M3 M5:M11 M12:M16 M17:M18 M20:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E4 E2:E3 E5:E11 E12:E16 E17:E18 E19:E1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C2:C3 C5:C11 C12:C16 C17:C18 C19:C1048576">
-      <formula1>"紧急,不紧急"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P4 P2:P3 P5:P11 P12:P16 P17:P18 P19:P1048576">
-      <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R4 R2:R3 R5:R11 R12:R16 R17:R18 R19:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R4 R19 R2:R3 R5:R11 R12:R16 R17:R18 R20:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 N16 N2:N3 N5:N11 N12:N15 N17:N18 N19:N77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 N16 N19 N2:N3 N5:N11 N12:N15 N17:N18 N20:N77">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7364,6 +7417,7 @@
     <hyperlink ref="S12" r:id="rId13" display="TOPT-679"/>
     <hyperlink ref="S16" r:id="rId14" display="TOPT-434"/>
     <hyperlink ref="S17" r:id="rId15" display="EQ-397"/>
+    <hyperlink ref="S19" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7402,55 +7456,55 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="66" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G1" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="67" t="s">
-        <v>106</v>
-      </c>
       <c r="O1" s="67" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="67" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="R1" s="67" t="s">
         <v>22</v>
@@ -7458,52 +7512,52 @@
     </row>
     <row r="2" ht="189" spans="1:18">
       <c r="A2" s="68" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D2" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K2" s="83"/>
       <c r="L2" s="83" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M2" s="82" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N2" s="82" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O2" s="84" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P2" s="85"/>
       <c r="Q2" s="85"/>
       <c r="R2" s="91" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:18">
@@ -7576,7 +7630,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="47" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -7591,34 +7645,34 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="49" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K2" s="50" t="s">
         <v>22</v>
@@ -7743,7 +7797,7 @@
     </row>
     <row r="16" spans="5:14">
       <c r="E16" s="60" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="61"/>
@@ -8071,7 +8125,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -8103,40 +8157,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>22</v>
@@ -8150,34 +8204,34 @@
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M4" s="17"/>
     </row>
@@ -8191,7 +8245,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -8205,7 +8259,7 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -8222,7 +8276,7 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -8239,7 +8293,7 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -8276,37 +8330,37 @@
         <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:13">
@@ -8317,7 +8371,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -8325,7 +8379,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="14" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:13">
@@ -8336,7 +8390,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -8344,7 +8398,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:13">
@@ -8355,7 +8409,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -8363,7 +8417,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:13">
@@ -8374,7 +8428,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -8382,7 +8436,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:13">
@@ -8393,7 +8447,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -8410,7 +8464,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -8427,7 +8481,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -8444,7 +8498,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -8461,7 +8515,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -8478,7 +8532,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -8495,7 +8549,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -8512,7 +8566,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -8529,7 +8583,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -8546,7 +8600,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -8563,7 +8617,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -8580,7 +8634,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -8597,7 +8651,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -8614,7 +8668,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -8631,7 +8685,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -8648,7 +8702,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -8665,34 +8719,34 @@
         <v>46</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M31" s="29"/>
     </row>
@@ -8704,25 +8758,25 @@
         <v>74</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E32" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>200</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>73</v>
@@ -8731,7 +8785,7 @@
         <v>73</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M32" s="29"/>
     </row>
@@ -8762,11 +8816,11 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 F32">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I31 I32">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 F32">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8800,7 +8854,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -8832,40 +8886,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>22</v>
@@ -8879,34 +8933,34 @@
         <v>31</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M4" s="26"/>
     </row>
@@ -8918,37 +8972,37 @@
         <v>31</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" ht="33" spans="1:13">
@@ -8959,37 +9013,37 @@
         <v>46</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:13">
@@ -9000,25 +9054,25 @@
         <v>74</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>73</v>
@@ -9027,7 +9081,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M7" s="29"/>
     </row>
@@ -9171,14 +9225,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F4:F5 F8:F16">
+      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I4:I5">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F4:F5 F8:F16">
-      <formula1>"新增,修改,删除"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9212,7 +9266,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9244,40 +9298,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>22</v>
@@ -9291,34 +9345,34 @@
         <v>31</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M4" s="26"/>
     </row>
@@ -9330,37 +9384,37 @@
         <v>31</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:13">
@@ -9371,37 +9425,37 @@
         <v>46</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:13">
@@ -9412,25 +9466,25 @@
         <v>74</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>73</v>
@@ -9439,7 +9493,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M7" s="29"/>
     </row>
@@ -9451,25 +9505,25 @@
         <v>74</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>73</v>
@@ -9478,7 +9532,7 @@
         <v>73</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M8" s="29"/>
     </row>
@@ -9691,29 +9745,29 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I4:I5">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E10">
       <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M10">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F4:F5 F11:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I4:I5">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10">
+      <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G10 I9:I10 V9:V10">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C10">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G10 I9:I10 V9:V10">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10">
-      <formula1>"重要,不重要"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M10">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N10">
       <formula1>"高,中,低"</formula1>
@@ -9761,7 +9815,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -9793,40 +9847,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>22</v>
@@ -9840,34 +9894,34 @@
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M4" s="17"/>
     </row>
@@ -9881,7 +9935,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -9895,7 +9949,7 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -9912,7 +9966,7 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -9929,7 +9983,7 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -9966,37 +10020,37 @@
         <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:13">
@@ -10007,7 +10061,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -10015,7 +10069,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="14" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:13">
@@ -10026,7 +10080,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -10034,7 +10088,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:13">
@@ -10045,7 +10099,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -10053,7 +10107,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:13">
@@ -10064,7 +10118,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -10072,7 +10126,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:13">
@@ -10083,7 +10137,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -10100,7 +10154,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -10117,7 +10171,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -10134,7 +10188,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -10151,7 +10205,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -10168,7 +10222,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -10185,7 +10239,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -10202,7 +10256,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -10219,7 +10273,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -10236,7 +10290,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -10253,7 +10307,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -10270,7 +10324,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -10287,7 +10341,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -10304,7 +10358,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -10321,7 +10375,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -10338,7 +10392,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -10400,28 +10454,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
